--- a/data/7172.xlsx
+++ b/data/7172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43257,6 +43257,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7172</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>PMBTECH</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>11000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7172.xlsx
+++ b/data/7172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43292,6 +43292,43 @@
         <v>11000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7172</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>PMBTECH</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7172.xlsx
+++ b/data/7172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43329,6 +43329,41 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7172</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>PMBTECH</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>86900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7172.xlsx
+++ b/data/7172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43364,6 +43364,41 @@
         <v>86900</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7172</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>PMBTECH</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>25400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7172.xlsx
+++ b/data/7172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43399,6 +43399,41 @@
         <v>25400</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7172</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>PMBTECH</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>34000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7172.xlsx
+++ b/data/7172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43434,6 +43434,41 @@
         <v>34000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7172</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>PMBTECH</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>8000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7172.xlsx
+++ b/data/7172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43469,6 +43469,41 @@
         <v>8000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7172</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>PMBTECH</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7172.xlsx
+++ b/data/7172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43504,6 +43504,41 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7172</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>PMBTECH</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>43100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7172.xlsx
+++ b/data/7172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43539,6 +43539,41 @@
         <v>43100</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7172</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>PMBTECH</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>21000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7172.xlsx
+++ b/data/7172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43574,6 +43574,41 @@
         <v>21000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7172</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>PMBTECH</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>22300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7172.xlsx
+++ b/data/7172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43609,6 +43609,41 @@
         <v>22300</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7172</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>PMBTECH</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>76600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7172.xlsx
+++ b/data/7172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43644,6 +43644,41 @@
         <v>76600</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7172</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>PMBTECH</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>58300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7172.xlsx
+++ b/data/7172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43679,6 +43679,76 @@
         <v>58300</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7172</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>PMBTECH</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7172</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>PMBTECH</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>152200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7172.xlsx
+++ b/data/7172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43749,6 +43749,76 @@
         <v>152200</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7172</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>PMBTECH</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>29100</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7172</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>PMBTECH</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7172.xlsx
+++ b/data/7172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43819,6 +43819,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7172</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>PMBTECH</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7172.xlsx
+++ b/data/7172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43854,6 +43854,41 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7172</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>PMBTECH</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>4400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7172.xlsx
+++ b/data/7172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43889,6 +43889,41 @@
         <v>4400</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7172</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>PMBTECH</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>73500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7172.xlsx
+++ b/data/7172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43924,6 +43924,41 @@
         <v>73500</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7172</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>PMBTECH</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>221800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7172.xlsx
+++ b/data/7172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43959,6 +43959,76 @@
         <v>221800</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7172</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>PMBTECH</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>101700</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7172</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>PMBTECH</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>3</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>3</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>11900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7172.xlsx
+++ b/data/7172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44029,6 +44029,41 @@
         <v>11900</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7172</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>PMBTECH</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>124900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7172.xlsx
+++ b/data/7172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44064,6 +44064,41 @@
         <v>124900</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>7172</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>PMBTECH</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>155200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7172.xlsx
+++ b/data/7172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1999"/>
+  <dimension ref="A1:I2000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70629,6 +70629,41 @@
         <v>155200</v>
       </c>
     </row>
+    <row r="2000">
+      <c r="A2000" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2000" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2000" t="inlineStr">
+        <is>
+          <t>7172</t>
+        </is>
+      </c>
+      <c r="D2000" t="inlineStr">
+        <is>
+          <t>PMBTECH</t>
+        </is>
+      </c>
+      <c r="E2000" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F2000" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G2000" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="H2000" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="I2000" t="n">
+        <v>132200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7172.xlsx
+++ b/data/7172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2000"/>
+  <dimension ref="A1:I2001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70664,6 +70664,41 @@
         <v>132200</v>
       </c>
     </row>
+    <row r="2001">
+      <c r="A2001" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2001" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2001" t="inlineStr">
+        <is>
+          <t>7172</t>
+        </is>
+      </c>
+      <c r="D2001" t="inlineStr">
+        <is>
+          <t>PMBTECH</t>
+        </is>
+      </c>
+      <c r="E2001" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F2001" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G2001" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H2001" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I2001" t="n">
+        <v>261900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7172.xlsx
+++ b/data/7172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2001"/>
+  <dimension ref="A1:I2002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70699,6 +70699,41 @@
         <v>261900</v>
       </c>
     </row>
+    <row r="2002">
+      <c r="A2002" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2002" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2002" t="inlineStr">
+        <is>
+          <t>7172</t>
+        </is>
+      </c>
+      <c r="D2002" t="inlineStr">
+        <is>
+          <t>PMBTECH</t>
+        </is>
+      </c>
+      <c r="E2002" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="F2002" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G2002" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="H2002" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I2002" t="n">
+        <v>45000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7172.xlsx
+++ b/data/7172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2002"/>
+  <dimension ref="A1:I2003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70734,6 +70734,41 @@
         <v>45000</v>
       </c>
     </row>
+    <row r="2003">
+      <c r="A2003" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2003" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2003" t="inlineStr">
+        <is>
+          <t>7172</t>
+        </is>
+      </c>
+      <c r="D2003" t="inlineStr">
+        <is>
+          <t>PMBTECH</t>
+        </is>
+      </c>
+      <c r="E2003" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="F2003" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G2003" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="H2003" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="I2003" t="n">
+        <v>151600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7172.xlsx
+++ b/data/7172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2003"/>
+  <dimension ref="A1:I2004"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70769,6 +70769,41 @@
         <v>151600</v>
       </c>
     </row>
+    <row r="2004">
+      <c r="A2004" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2004" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2004" t="inlineStr">
+        <is>
+          <t>7172</t>
+        </is>
+      </c>
+      <c r="D2004" t="inlineStr">
+        <is>
+          <t>PMBTECH</t>
+        </is>
+      </c>
+      <c r="E2004" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F2004" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G2004" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H2004" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I2004" t="n">
+        <v>76300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7172.xlsx
+++ b/data/7172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2004"/>
+  <dimension ref="A1:I2005"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70804,6 +70804,41 @@
         <v>76300</v>
       </c>
     </row>
+    <row r="2005">
+      <c r="A2005" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2005" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2005" t="inlineStr">
+        <is>
+          <t>7172</t>
+        </is>
+      </c>
+      <c r="D2005" t="inlineStr">
+        <is>
+          <t>PMBTECH</t>
+        </is>
+      </c>
+      <c r="E2005" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F2005" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="G2005" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="H2005" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="I2005" t="n">
+        <v>62000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7172.xlsx
+++ b/data/7172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2005"/>
+  <dimension ref="A1:I2006"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70839,6 +70839,41 @@
         <v>62000</v>
       </c>
     </row>
+    <row r="2006">
+      <c r="A2006" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2006" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2006" t="inlineStr">
+        <is>
+          <t>7172</t>
+        </is>
+      </c>
+      <c r="D2006" t="inlineStr">
+        <is>
+          <t>PMBTECH</t>
+        </is>
+      </c>
+      <c r="E2006" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="F2006" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G2006" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="H2006" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I2006" t="n">
+        <v>56200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7172.xlsx
+++ b/data/7172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2006"/>
+  <dimension ref="A1:I2007"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70874,6 +70874,41 @@
         <v>56200</v>
       </c>
     </row>
+    <row r="2007">
+      <c r="A2007" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2007" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2007" t="inlineStr">
+        <is>
+          <t>7172</t>
+        </is>
+      </c>
+      <c r="D2007" t="inlineStr">
+        <is>
+          <t>PMBTECH</t>
+        </is>
+      </c>
+      <c r="E2007" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="F2007" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G2007" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H2007" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I2007" t="n">
+        <v>150000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7172.xlsx
+++ b/data/7172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2007"/>
+  <dimension ref="A1:I2008"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70909,6 +70909,41 @@
         <v>150000</v>
       </c>
     </row>
+    <row r="2008">
+      <c r="A2008" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2008" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2008" t="inlineStr">
+        <is>
+          <t>7172</t>
+        </is>
+      </c>
+      <c r="D2008" t="inlineStr">
+        <is>
+          <t>PMBTECH</t>
+        </is>
+      </c>
+      <c r="E2008" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="F2008" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G2008" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H2008" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="I2008" t="n">
+        <v>27800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7172.xlsx
+++ b/data/7172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2008"/>
+  <dimension ref="A1:I2009"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70944,6 +70944,41 @@
         <v>27800</v>
       </c>
     </row>
+    <row r="2009">
+      <c r="A2009" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2009" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2009" t="inlineStr">
+        <is>
+          <t>7172</t>
+        </is>
+      </c>
+      <c r="D2009" t="inlineStr">
+        <is>
+          <t>PMBTECH</t>
+        </is>
+      </c>
+      <c r="E2009" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="F2009" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G2009" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H2009" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="I2009" t="n">
+        <v>76000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7172.xlsx
+++ b/data/7172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2009"/>
+  <dimension ref="A1:I2010"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70979,6 +70979,41 @@
         <v>76000</v>
       </c>
     </row>
+    <row r="2010">
+      <c r="A2010" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2010" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2010" t="inlineStr">
+        <is>
+          <t>7172</t>
+        </is>
+      </c>
+      <c r="D2010" t="inlineStr">
+        <is>
+          <t>PMBTECH</t>
+        </is>
+      </c>
+      <c r="E2010" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="F2010" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="G2010" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H2010" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="I2010" t="n">
+        <v>11000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7172.xlsx
+++ b/data/7172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2010"/>
+  <dimension ref="A1:I2011"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71014,6 +71014,41 @@
         <v>11000</v>
       </c>
     </row>
+    <row r="2011">
+      <c r="A2011" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2011" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2011" t="inlineStr">
+        <is>
+          <t>7172</t>
+        </is>
+      </c>
+      <c r="D2011" t="inlineStr">
+        <is>
+          <t>PMBTECH</t>
+        </is>
+      </c>
+      <c r="E2011" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F2011" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G2011" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H2011" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I2011" t="n">
+        <v>11300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7172.xlsx
+++ b/data/7172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2011"/>
+  <dimension ref="A1:I2012"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71049,6 +71049,41 @@
         <v>11300</v>
       </c>
     </row>
+    <row r="2012">
+      <c r="A2012" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2012" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2012" t="inlineStr">
+        <is>
+          <t>7172</t>
+        </is>
+      </c>
+      <c r="D2012" t="inlineStr">
+        <is>
+          <t>PMBTECH</t>
+        </is>
+      </c>
+      <c r="E2012" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="F2012" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="G2012" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="H2012" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="I2012" t="n">
+        <v>45800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7172.xlsx
+++ b/data/7172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2012"/>
+  <dimension ref="A1:I2013"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71084,6 +71084,41 @@
         <v>45800</v>
       </c>
     </row>
+    <row r="2013">
+      <c r="A2013" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2013" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2013" t="inlineStr">
+        <is>
+          <t>7172</t>
+        </is>
+      </c>
+      <c r="D2013" t="inlineStr">
+        <is>
+          <t>PMBTECH</t>
+        </is>
+      </c>
+      <c r="E2013" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F2013" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G2013" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H2013" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I2013" t="n">
+        <v>16800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7172.xlsx
+++ b/data/7172.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2013"/>
+  <dimension ref="A1:I2014"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71119,6 +71119,41 @@
         <v>16800</v>
       </c>
     </row>
+    <row r="2014">
+      <c r="A2014" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2014" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2014" t="inlineStr">
+        <is>
+          <t>7172</t>
+        </is>
+      </c>
+      <c r="D2014" t="inlineStr">
+        <is>
+          <t>PMBTECH</t>
+        </is>
+      </c>
+      <c r="E2014" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="F2014" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="G2014" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H2014" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I2014" t="n">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
